--- a/docs/StructureDefinition-AllergyIntolerance.xlsx
+++ b/docs/StructureDefinition-AllergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AllergyIntolerance.xlsx
+++ b/docs/StructureDefinition-AllergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AllergyIntolerance.xlsx
+++ b/docs/StructureDefinition-AllergyIntolerance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AllergyIntolerance.xlsx
+++ b/docs/StructureDefinition-AllergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AllergyIntolerance.xlsx
+++ b/docs/StructureDefinition-AllergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -993,7 +993,8 @@
     <t>Allergy.Extension[AllergyExtension].DrugProducts</t>
   </si>
   <si>
-    <t>reaction.drugIngredient [m] (&gt;50.416-.01),reaction.drugIngredient [m] (&gt;50.416-99.99)</t>
+    <t>reaction.drugIngredient [m] (&gt;50.416-.01)
+reaction.drugIngredient [m] (&gt;50.416-99.99)</t>
   </si>
   <si>
     <t>substance/product:@@ -1105,10 +1106,16 @@
     <t>248: reference based on PATIENT ALLERGIES - PATIENT (120.8-.01)</t>
   </si>
   <si>
-    <t>Allergy.AllergicReaction.PatientIEN,Allergy.Allergy.PatientIEN,Allergy.AllergyComment.PatientIEN,Allergy.AllergyDrugClass.PatientIEN,Allergy.AllergyDrugIngredient.PatientIEN</t>
-  </si>
-  <si>
-    <t>reaction.drugClass [m],reaction.drugIngredient [m],reaction.reaction [m]</t>
+    <t>Allergy.AllergicReaction.PatientIEN
+Allergy.Allergy.PatientIEN
+Allergy.AllergyComment.PatientIEN
+Allergy.AllergyDrugClass.PatientIEN
+Allergy.AllergyDrugIngredient.PatientIEN</t>
+  </si>
+  <si>
+    <t>reaction.drugClass [m]
+reaction.drugIngredient [m]
+reaction.reaction [m]</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
@@ -1174,7 +1181,11 @@
     <t>1224: source value based on PATIENT ALLERGIES - ORIGINATION DATE/TIME (120.8-4)</t>
   </si>
   <si>
-    <t>Allergy.AllergicReaction.OriginationDateTime,Allergy.Allergy.OriginationDateTime,Allergy.AllergyComment.OriginationDateTime,Allergy.AllergyDrugClass.OriginationDateTime,Allergy.AllergyDrugIngredient.OriginationDateTime</t>
+    <t>Allergy.AllergicReaction.OriginationDateTime
+Allergy.Allergy.OriginationDateTime
+Allergy.AllergyComment.OriginationDateTime
+Allergy.AllergyDrugClass.OriginationDateTime
+Allergy.AllergyDrugIngredient.OriginationDateTime</t>
   </si>
   <si>
     <t>reaction.entered</t>
@@ -1328,7 +1339,9 @@
     <t>Allergy.AllergyComment.EnteringStaffIEN</t>
   </si>
   <si>
-    <t>Allergy.Comments,Allergy.InactiveComments,Allergy.Extension[AllergyExtension].Comments
+    <t>Allergy.Comments
+Allergy.InactiveComments
+Allergy.Extension[AllergyExtension].Comments
 Allergy.Comment[VA.Comment].EnteredBy</t>
   </si>
   <si>
@@ -1350,7 +1363,9 @@
     <t>Allergy.AllergyComment.CommentEnteredDateTime</t>
   </si>
   <si>
-    <t>Allergy.Comments,Allergy.InactiveComments,Allergy.Extension[AllergyExtension].Comments</t>
+    <t>Allergy.Comments
+Allergy.InactiveComments
+Allergy.Extension[AllergyExtension].Comments</t>
   </si>
   <si>
     <t>Act.effectiveTime</t>
@@ -1375,7 +1390,9 @@
     <t>1504: source value based on PATIENT ALLERGIES - COMMENTS &gt; COMMENTS - COMMENTS (120.8-26 &gt; 120.826-2)</t>
   </si>
   <si>
-    <t>Allergy.Comments,Allergy.InactiveComments,Allergy.Extension[AllergyExtension].Comments
+    <t>Allergy.Comments
+Allergy.InactiveComments
+Allergy.Extension[AllergyExtension].Comments
 Allergy.Comment[VA.Comment].CommentText</t>
   </si>
   <si>
@@ -1467,10 +1484,12 @@
     <t>252: source value based on PATIENT ALLERGIES - REACTIONS &gt; REACTIONS - REACTION &gt; SIGN/SYMPTOMS (120.8-10 &gt; 120.81-.01 &gt; 120.83-)</t>
   </si>
   <si>
-    <t>Allergy.Reaction,Allergy.Extension[AllergyExtension].Reactions</t>
-  </si>
-  <si>
-    <t>reaction.reaction [m] (&gt;120.83-.01),reaction.reaction [m] (&gt;120.83-99.99)</t>
+    <t>Allergy.Reaction
+Allergy.Extension[AllergyExtension].Reactions</t>
+  </si>
+  <si>
+    <t>reaction.reaction [m] (&gt;120.83-.01)
+reaction.reaction [m] (&gt;120.83-99.99)</t>
   </si>
   <si>
     <t>AL1-5</t>
@@ -1662,8 +1681,10 @@
     <t>Allergy.AllergicReaction.EnteredDateTime</t>
   </si>
   <si>
-    <t>Allergy.Reaction,Allergy.Extension[AllergyExtension].Reactions
-Allergy.Reaction.Extension,Allergy.Extension[ReactionExtension].EnteredOn</t>
+    <t>Allergy.Reaction
+Allergy.Extension[AllergyExtension].Reactions
+Allergy.Reaction.Extension
+Allergy.Extension[ReactionExtension].EnteredOn</t>
   </si>
   <si>
     <t>AL1-6</t>
@@ -1694,7 +1715,8 @@
     <t>557: terminologyMaps using VF_allergySeverity on ADVERSE REACTION REPORTING - SEVERITY (120.85-14.5) if ADVERSE REACTION REPORTING – RELATED REACTION (120.85-.03) == PATIENT ALLERGIES (120.8)</t>
   </si>
   <si>
-    <t>Allergy.Severity,Allergy.AllergyObservation[VA.AllergyObservation].Severity</t>
+    <t>Allergy.Severity
+Allergy.AllergyObservation[VA.AllergyObservation].Severity</t>
   </si>
   <si>
     <t>reaction.severity</t>
@@ -2095,9 +2117,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="168.5703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="179.5546875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="74.3046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="70.47265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="47.87109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="31.65234375" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="39.109375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-AllergyIntolerance.xlsx
+++ b/docs/StructureDefinition-AllergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1709,10 +1709,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ai-18-557:If ADVERSE REACTION REPORTING – RELATED REACTION (120.85-.03) == PATIENT ALLERGIES (120.8) then terminologyMaps (120.85-14.5) using VF_allergySeverity {true}</t>
-  </si>
-  <si>
-    <t>557: terminologyMaps using VF_allergySeverity on ADVERSE REACTION REPORTING - SEVERITY (120.85-14.5) if ADVERSE REACTION REPORTING – RELATED REACTION (120.85-.03) == PATIENT ALLERGIES (120.8)</t>
+ai-18-557:If {.03&gt;120.8} then terminologyMaps (120.85-14.5) using VF_allergySeverity {true}</t>
+  </si>
+  <si>
+    <t>557: terminologyMaps using VF_allergySeverity on ADVERSE REACTION REPORTING - SEVERITY (120.85-14.5) if {.03&gt;120.8}</t>
   </si>
   <si>
     <t>Allergy.Severity
@@ -2116,7 +2116,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="168.5703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="125.6640625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="52.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="47.87109375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-AllergyIntolerance.xlsx
+++ b/docs/StructureDefinition-AllergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
